--- a/biology/Botanique/Malus_communis/Malus_communis.xlsx
+++ b/biology/Botanique/Malus_communis/Malus_communis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom scientifique Malus communis n'est plus utilisé à l'heure actuelle.
 </t>
@@ -511,9 +523,11 @@
           <t>Malus communis (L.) Desf.</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La première fois que une cette nomme est publié est dans la combination[Quoi ?] Malus communis (L.) Desf. (1798). Son basionyme est Pyrus communis L., c'est ce dernier qui est également le synonyme valide[1]. Il s'agit du poirier commun. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La première fois que une cette nomme est publié est dans la combination[Quoi ?] Malus communis (L.) Desf. (1798). Son basionyme est Pyrus communis L., c'est ce dernier qui est également le synonyme valide. Il s'agit du poirier commun. 
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Malus communis Poir.</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La seconde fois qu que une cette nomme est publié est sous ce nom[Quoi ?] : Malus communis Poir. (1804)[2] (homonym illégitime). Elle est synonyme à Malus sylvestris Mill., le pommier sauvage ou synonyme à Malus domestica Mill[3]., le pommier domestique.
-La description de Leopold Dippel en 1893 d'une sous-espèce Malus communis subsp. sylvestris (Mill.) Dippel est par conséquent caduc. Qui plus est la combinaison de ce nom est illégitime[4]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La seconde fois qu que une cette nomme est publié est sous ce nom[Quoi ?] : Malus communis Poir. (1804) (homonym illégitime). Elle est synonyme à Malus sylvestris Mill., le pommier sauvage ou synonyme à Malus domestica Mill., le pommier domestique.
+La description de Leopold Dippel en 1893 d'une sous-espèce Malus communis subsp. sylvestris (Mill.) Dippel est par conséquent caduc. Qui plus est la combinaison de ce nom est illégitime
 </t>
         </is>
       </c>
